--- a/seed/data_importer/tests/data/example-data-properties-unicode.xlsx
+++ b/seed/data_importer/tests/data/example-data-properties-unicode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlong/working/seed/seed/seed/data_importer/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A8DB47-0181-A249-9BB8-176260DCFD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284BB068-EB33-804D-80A0-8F343FF0A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="9360" windowWidth="28040" windowHeight="17440" xr2:uid="{A4E25A73-D8E8-9847-99F2-E736CCAB09B3}"/>
+    <workbookView xWindow="3900" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{A4E25A73-D8E8-9847-99F2-E736CCAB09B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
